--- a/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>66,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>58,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>62,32</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-11,92; 5,44</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>59,17; 72,37</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; 5,25</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51,57; 65,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,89; 2,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,36; 67,31</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-12,54%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>238,4%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-12,99%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>162,1%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>194,29%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-37,44; 23,77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>171,22; 327,37</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-34,64; 16,68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>119,43; 224,77</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,52; 9,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>155,26; 245,03</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 6,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,4; 18,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 5,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 11,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,79; 18,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; 4,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 5,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,4; 16,24</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,79%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,12; 24,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,35; 16,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,03; 69,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,35; 21,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,15; 41,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,7; 70,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,35; 16,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,99; 21,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,73; 58,98</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,15; 17,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,68; 22,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,74; 25,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,14; 17,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,97; 21,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,72; 23,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,89; 15,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,24; 19,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,53; 21,79</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,89%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,42; 88,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,97; 120,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,71; 125,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,83; 82,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,32; 97,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,23; 110,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,78; 74,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,35; 89,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,23; 101,06</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,08; -4,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,64; 1,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,4; 5,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,61; -0,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,78; -1,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; 8,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; -4,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,49; -1,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 4,85</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,61; -13,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,45; 4,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,53; 17,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,77; -2,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,85; -3,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,64; 26,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,01; -13,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,65; -4,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,66; 14,79</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>49,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,9</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>47,43</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,11</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>48,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,0; 10,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,22; 35,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,95; 57,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,01; 13,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,03; 35,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,73; 55,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 8,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,05; 32,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,68; 54,12</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,01%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,84%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,27%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,57; 28,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,24; 105,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,12; 178,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,32; 35,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,28; 95,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,6; 155,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 23,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,8; 89,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,95; 148,55</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,92</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,72</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 14,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,68; 24,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,89; 26,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 16,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 22,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,11; 27,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 12,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,31; 20,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,51; 25,3</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,02%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,82; 72,49</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,37; 122,46</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,46; 134,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 60,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,91; 85,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,04; 104,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 51,68</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,84; 83,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,41; 102,68</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,76</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>37,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,52</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,27</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,49</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,45</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 14,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,63; 33,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,4; 42,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,66; 18,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,5; 29,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,2; 32,88</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,95; 14,84</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,45; 29,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,35; 35,48</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,83%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>168,51%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,63%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,06%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,91; 71,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,42; 177,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>122,28; 226,24</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,53; 81,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,23; 127,77</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,04; 135,2</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,68; 66,66</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,7; 133,17</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,29; 156,09</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,26</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,13</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,33</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>40,22</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,77</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,71; -2,58</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,11; 21,71</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,67; 35,98</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 3,49</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,94; 24,83</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,14; 44,98</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,48; -0,95</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,04; 22,09</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,35; 39,12</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,68%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,53%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,89%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,17%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,88; -7,83</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,17; 66,89</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,37; 112,27</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,23; 11,33</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,36; 80,14</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>93,63; 148,74</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,14; -2,77</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,47; 67,53</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,04; 121,92</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,67</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,86</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,25</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 1,98</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,47; 13,83</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,83; 29,57</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 5,53</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 14,53</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,29; 28,68</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 3,03</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,64; 13,39</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,13; 28,46</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,66%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,53; 7,08</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,93; 48,48</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,93; 105,07</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 18,34</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,56; 48,14</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,12; 94,59</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 10,29</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,26; 44,75</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,48; 96,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>66,16</t>
+          <t>66,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-18,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>58,66</t>
+          <t>58,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>62,32</t>
+          <t>62,56</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,89; -1,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,17; 72,37</t>
+          <t>59,54; 72,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,7; -9,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,57; 65,92</t>
+          <t>51,76; 66,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,21; -8,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57,36; 67,31</t>
+          <t>57,5; 67,51</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>238,4%</t>
+          <t>239,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>162,1%</t>
+          <t>162,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>194,29%</t>
+          <t>195,04%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,1; -5,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>171,22; 327,37</t>
+          <t>172,26; 329,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,98; -29,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>119,43; 224,77</t>
+          <t>119,7; 223,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,24; -27,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>155,26; 245,03</t>
+          <t>155,64; 245,5</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>10,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>11,3</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 18,32</t>
+          <t>4,13; 18,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 18,7</t>
+          <t>6,76; 18,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 16,24</t>
+          <t>6,13; 15,97</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>38,05%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 69,82</t>
+          <t>11,47; 68,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 70,33</t>
+          <t>20,67; 70,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 58,98</t>
+          <t>18,68; 58,28</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,46</t>
+          <t>16,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,77</t>
+          <t>17,24</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,74; 25,04</t>
+          <t>9,49; 25,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 23,1</t>
+          <t>9,85; 23,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,53; 21,79</t>
+          <t>11,97; 22,35</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,65%</t>
+          <t>74,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>65,03%</t>
+          <t>65,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>67,89%</t>
+          <t>69,76%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,71; 125,58</t>
+          <t>34,38; 129,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,23; 110,91</t>
+          <t>32,64; 111,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,23; 101,06</t>
+          <t>42,86; 103,78</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-11,82</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>1,18</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,08; -4,68</t>
+          <t>-14,46; 1,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 5,73</t>
+          <t>-12,05; 5,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,61; -0,77</t>
+          <t>-7,02; 7,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 8,03</t>
+          <t>-9,1; 30,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,7; -4,73</t>
+          <t>-8,7; 2,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 4,85</t>
+          <t>-7,19; 18,87</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,18%</t>
+          <t>-18,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,28%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-26,03%</t>
+          <t>-8,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,61; -13,98</t>
+          <t>-35,88; 5,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 17,25</t>
+          <t>-29,83; 16,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -2,55</t>
+          <t>-18,21; 24,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 26,83</t>
+          <t>-25,09; 97,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,01; -13,98</t>
+          <t>-22,79; 8,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 14,79</t>
+          <t>-19,76; 54,39</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>49,59</t>
+          <t>49,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>47,43</t>
+          <t>47,33</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>48,55</t>
+          <t>48,48</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>40,95; 57,68</t>
+          <t>40,98; 57,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>39,73; 55,22</t>
+          <t>39,59; 55,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,68; 54,12</t>
+          <t>42,65; 54,08</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>124,84%</t>
+          <t>124,81%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>110,2%</t>
+          <t>109,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>117,27%</t>
+          <t>117,11%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>87,12; 178,5</t>
+          <t>87,28; 178,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>79,6; 155,13</t>
+          <t>79,42; 154,39</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>90,95; 148,55</t>
+          <t>90,84; 148,37</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>19,72</t>
+          <t>19,77</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>18,64</t>
+          <t>18,75</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,89; 26,21</t>
+          <t>9,3; 26,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,11; 27,8</t>
+          <t>12,21; 27,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>12,51; 25,3</t>
+          <t>12,55; 25,32</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>72,87%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>62,07%</t>
+          <t>62,2%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>66,02%</t>
+          <t>66,43%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,46; 134,46</t>
+          <t>31,62; 136,47</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,04; 104,42</t>
+          <t>33,26; 104,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>37,41; 102,68</t>
+          <t>37,37; 102,98</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>37,18</t>
+          <t>37,59</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>23,27</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>29,45</t>
+          <t>25,89</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>31,4; 42,71</t>
+          <t>31,68; 43,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,2; 32,88</t>
+          <t>-7,57; 32,65</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>14,35; 35,48</t>
+          <t>5,54; 35,6</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>168,51%</t>
+          <t>170,39%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>66,09%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>122,06%</t>
+          <t>107,29%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>122,28; 226,24</t>
+          <t>124,01; 228,77</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>15,04; 135,2</t>
+          <t>-26,12; 131,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>66,29; 156,09</t>
+          <t>23,43; 152,66</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>29,13</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>40,22</t>
+          <t>40,21</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>34,77</t>
+          <t>26,03</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>16,67; 35,98</t>
+          <t>-12,18; 35,09</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>35,14; 44,98</t>
+          <t>35,19; 44,96</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>27,35; 39,12</t>
+          <t>2,45; 38,01</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>119,89%</t>
+          <t>119,88%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>101,17%</t>
+          <t>75,74%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>47,37; 112,27</t>
+          <t>-33,69; 103,82</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>93,63; 148,74</t>
+          <t>93,75; 148,78</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>78,04; 121,92</t>
+          <t>7,48; 113,21</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>26,67</t>
+          <t>23,58</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>25,86</t>
+          <t>24,43</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>26,25</t>
+          <t>24,0</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>22,83; 29,57</t>
+          <t>11,03; 28,88</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>20,29; 28,68</t>
+          <t>14,83; 28,97</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>23,13; 28,46</t>
+          <t>16,41; 28,0</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>78,32%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>73,93; 105,07</t>
+          <t>38,74; 99,31</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>64,12; 94,59</t>
+          <t>47,34; 93,96</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>74,48; 96,09</t>
+          <t>54,1; 92,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -1,46</t>
+          <t>-17,5; -0,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 5,44</t>
+          <t>-12,19; 5,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,54; 72,87</t>
+          <t>59,64; 73,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,7; -9,36</t>
+          <t>-27,13; -9,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 5,25</t>
+          <t>-14,05; 4,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,76; 66,03</t>
+          <t>51,56; 66,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,21; -8,11</t>
+          <t>-19,83; -7,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 2,75</t>
+          <t>-10,52; 2,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57,5; 67,51</t>
+          <t>57,28; 67,31</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,1; -5,91</t>
+          <t>-52,79; -3,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,44; 23,77</t>
+          <t>-38,26; 22,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>172,26; 329,13</t>
+          <t>171,08; 337,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,98; -29,86</t>
+          <t>-65,54; -31,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 16,68</t>
+          <t>-34,83; 14,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>119,7; 223,52</t>
+          <t>119,61; 230,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,24; -27,68</t>
+          <t>-55,43; -25,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 9,86</t>
+          <t>-30,31; 6,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>155,64; 245,5</t>
+          <t>154,14; 243,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 6,62</t>
+          <t>-6,74; 6,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 4,39</t>
+          <t>-9,42; 4,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 18,29</t>
+          <t>3,4; 17,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 5,64</t>
+          <t>-5,96; 5,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 11,09</t>
+          <t>-1,41; 10,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 18,67</t>
+          <t>6,3; 18,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,56</t>
+          <t>-5,02; 4,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 5,65</t>
+          <t>-3,6; 5,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,97</t>
+          <t>6,89; 16,25</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 24,8</t>
+          <t>-20,33; 25,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 16,11</t>
+          <t>-28,8; 15,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,47; 68,48</t>
+          <t>10,09; 68,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 21,84</t>
+          <t>-18,18; 21,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 41,89</t>
+          <t>-4,61; 40,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,67; 70,25</t>
+          <t>18,85; 69,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 16,78</t>
+          <t>-15,59; 15,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 21,22</t>
+          <t>-11,07; 21,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 58,28</t>
+          <t>21,09; 59,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 17,32</t>
+          <t>1,92; 17,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 22,65</t>
+          <t>6,25; 21,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,49; 25,97</t>
+          <t>10,09; 25,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 17,95</t>
+          <t>3,86; 17,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,97; 21,41</t>
+          <t>6,24; 21,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,85; 23,29</t>
+          <t>9,51; 23,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 15,96</t>
+          <t>4,78; 15,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 19,54</t>
+          <t>8,19; 19,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 22,35</t>
+          <t>12,01; 22,4</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 88,93</t>
+          <t>6,89; 87,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,97; 120,51</t>
+          <t>22,47; 113,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,38; 129,67</t>
+          <t>34,35; 129,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,83; 82,25</t>
+          <t>12,71; 81,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,32; 97,83</t>
+          <t>20,92; 100,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,64; 111,91</t>
+          <t>30,87; 106,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 74,2</t>
+          <t>17,35; 70,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,35; 89,38</t>
+          <t>29,4; 87,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,86; 103,78</t>
+          <t>43,71; 102,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 1,54</t>
+          <t>-15,05; 1,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 1,63</t>
+          <t>-13,88; 1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 5,53</t>
+          <t>-12,62; 5,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 7,99</t>
+          <t>-7,31; 8,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,78; -1,42</t>
+          <t>-15,84; -1,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 30,58</t>
+          <t>-8,34; 30,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 2,83</t>
+          <t>-8,52; 3,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,49; -1,65</t>
+          <t>-12,37; -1,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 18,87</t>
+          <t>-6,59; 18,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,88; 5,18</t>
+          <t>-37,42; 2,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,45; 4,76</t>
+          <t>-34,45; 4,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 16,83</t>
+          <t>-31,59; 15,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 24,99</t>
+          <t>-18,96; 26,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,85; -3,87</t>
+          <t>-39,91; -2,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 97,15</t>
+          <t>-22,69; 92,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 8,84</t>
+          <t>-22,28; 9,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -4,87</t>
+          <t>-32,33; -5,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 54,39</t>
+          <t>-18,29; 56,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 10,09</t>
+          <t>-11,94; 10,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,22; 35,9</t>
+          <t>12,68; 35,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>40,98; 57,66</t>
+          <t>40,66; 58,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 13,1</t>
+          <t>-7,11; 12,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,03; 35,18</t>
+          <t>14,21; 36,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>39,59; 55,11</t>
+          <t>38,6; 55,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 8,93</t>
+          <t>-6,15; 8,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,05; 32,55</t>
+          <t>17,18; 32,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>42,65; 54,08</t>
+          <t>42,54; 54,19</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 28,38</t>
+          <t>-26,23; 31,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>29,24; 105,18</t>
+          <t>29,42; 104,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>87,28; 178,81</t>
+          <t>84,89; 175,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 35,34</t>
+          <t>-14,51; 33,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,28; 95,16</t>
+          <t>28,05; 97,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>79,42; 154,39</t>
+          <t>77,38; 150,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 23,98</t>
+          <t>-13,89; 23,86</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>38,8; 89,48</t>
+          <t>37,62; 86,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>90,84; 148,37</t>
+          <t>92,72; 148,58</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 14,64</t>
+          <t>-2,93; 14,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,68; 24,52</t>
+          <t>5,84; 24,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9,3; 26,71</t>
+          <t>9,47; 27,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 16,0</t>
+          <t>-0,28; 16,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,07; 22,53</t>
+          <t>4,59; 21,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,21; 27,85</t>
+          <t>11,55; 26,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 12,99</t>
+          <t>0,56; 13,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>7,31; 20,7</t>
+          <t>8,05; 21,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>12,55; 25,32</t>
+          <t>13,21; 25,14</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 72,49</t>
+          <t>-9,59; 76,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>18,37; 122,46</t>
+          <t>19,22; 125,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>31,62; 136,47</t>
+          <t>29,59; 139,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 60,78</t>
+          <t>-0,65; 61,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,91; 85,57</t>
+          <t>13,0; 82,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,26; 104,38</t>
+          <t>30,41; 100,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,96; 51,68</t>
+          <t>1,59; 52,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,84; 83,72</t>
+          <t>24,82; 87,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>37,37; 102,98</t>
+          <t>41,71; 103,25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,65; 14,16</t>
+          <t>2,93; 14,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>21,63; 33,8</t>
+          <t>21,52; 34,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>31,68; 43,34</t>
+          <t>31,32; 43,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,66; 18,95</t>
+          <t>7,66; 19,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,5; 29,6</t>
+          <t>17,75; 29,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 32,65</t>
+          <t>-7,33; 33,27</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,84</t>
+          <t>7,01; 15,16</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>21,45; 29,58</t>
+          <t>20,91; 30,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,54; 35,6</t>
+          <t>6,4; 35,63</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>9,91; 71,47</t>
+          <t>11,85; 73,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>86,42; 177,91</t>
+          <t>84,5; 177,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>124,01; 228,77</t>
+          <t>121,47; 228,01</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>27,53; 81,92</t>
+          <t>26,72; 83,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>61,23; 127,77</t>
+          <t>61,64; 125,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 131,92</t>
+          <t>-27,25; 135,25</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>26,68; 66,66</t>
+          <t>26,25; 69,83</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>80,7; 133,17</t>
+          <t>79,55; 136,73</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>23,43; 152,66</t>
+          <t>28,4; 153,52</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -2,58</t>
+          <t>-13,62; -2,53</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>10,11; 21,71</t>
+          <t>10,03; 22,14</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 35,09</t>
+          <t>-14,35; 35,11</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 3,49</t>
+          <t>-7,31; 3,97</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>13,94; 24,83</t>
+          <t>13,63; 25,26</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>35,19; 44,96</t>
+          <t>35,5; 44,88</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-8,48; -0,95</t>
+          <t>-8,93; -0,96</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>14,04; 22,09</t>
+          <t>14,0; 21,72</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>2,45; 38,01</t>
+          <t>0,18; 37,95</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-35,88; -7,83</t>
+          <t>-35,51; -7,88</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>25,17; 66,89</t>
+          <t>27,14; 69,13</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 103,82</t>
+          <t>-36,06; 103,17</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 11,33</t>
+          <t>-20,47; 12,77</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>37,36; 80,14</t>
+          <t>37,15; 83,19</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>93,75; 148,78</t>
+          <t>97,3; 150,81</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-23,14; -2,77</t>
+          <t>-24,16; -3,0</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>37,47; 67,53</t>
+          <t>37,82; 67,56</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>7,48; 113,21</t>
+          <t>2,06; 113,73</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,98</t>
+          <t>-3,08; 2,03</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,83</t>
+          <t>8,32; 13,67</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>11,03; 28,88</t>
+          <t>11,73; 28,69</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,53</t>
+          <t>0,37; 5,51</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,53</t>
+          <t>9,32; 14,7</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>14,83; 28,97</t>
+          <t>13,16; 29,07</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,03</t>
+          <t>-0,42; 3,1</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,64; 13,39</t>
+          <t>9,49; 13,31</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>16,41; 28,0</t>
+          <t>16,89; 27,91</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 7,08</t>
+          <t>-9,82; 7,14</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>26,93; 48,48</t>
+          <t>26,74; 47,87</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>38,74; 99,31</t>
+          <t>38,95; 98,94</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>0,19; 18,34</t>
+          <t>1,0; 18,41</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>28,56; 48,14</t>
+          <t>28,64; 48,73</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>47,34; 93,96</t>
+          <t>42,6; 94,76</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 10,29</t>
+          <t>-1,28; 10,51</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>30,26; 44,75</t>
+          <t>29,96; 44,95</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>54,1; 92,74</t>
+          <t>56,86; 92,73</t>
         </is>
       </c>
     </row>
